--- a/Project_docs/Baza błędów -v.2022.06.23.xlsx
+++ b/Project_docs/Baza błędów -v.2022.06.23.xlsx
@@ -353,12 +353,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -367,6 +363,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -386,8 +385,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -685,14 +685,14 @@
   <dimension ref="A1:Z14"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Q5" sqref="Q5"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="33.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
@@ -715,26 +715,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="12"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="12"/>
+      <c r="N1" s="12"/>
+      <c r="O1" s="12"/>
+      <c r="P1" s="12"/>
+      <c r="Q1" s="12"/>
+      <c r="R1" s="13"/>
       <c r="W1" s="9" t="s">
         <v>30</v>
       </c>
@@ -749,82 +749,82 @@
       </c>
     </row>
     <row r="2" spans="1:26">
-      <c r="A2" s="13"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14"/>
-      <c r="E2" s="14"/>
-      <c r="F2" s="14"/>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="14"/>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-      <c r="P2" s="14"/>
-      <c r="Q2" s="14"/>
-      <c r="R2" s="15"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="15"/>
+      <c r="R2" s="16"/>
       <c r="W2" s="9"/>
       <c r="X2" s="8"/>
       <c r="Y2" s="9"/>
       <c r="Z2" s="8"/>
     </row>
     <row r="3" spans="1:26">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="5" t="s">
+      <c r="I3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="5" t="s">
+      <c r="J3" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="5" t="s">
+      <c r="L3" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="5" t="s">
+      <c r="M3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="N3" s="5" t="s">
+      <c r="N3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="O3" s="5" t="s">
+      <c r="O3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="P3" s="5" t="s">
+      <c r="P3" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="Q3" s="5" t="s">
+      <c r="Q3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="R3" s="6" t="s">
+      <c r="R3" s="17" t="s">
         <v>9</v>
       </c>
       <c r="W3" s="1" t="s">
@@ -841,24 +841,24 @@
       </c>
     </row>
     <row r="4" spans="1:26">
-      <c r="A4" s="5"/>
-      <c r="B4" s="5"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="6"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
       <c r="W4" s="1" t="s">
         <v>3</v>
       </c>
@@ -891,7 +891,7 @@
       <c r="F5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G5" s="17" t="s">
+      <c r="G5" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -901,7 +901,7 @@
         <v>36</v>
       </c>
       <c r="J5" s="1"/>
-      <c r="K5" s="16">
+      <c r="K5" s="5">
         <v>44733</v>
       </c>
       <c r="L5" s="1" t="s">
@@ -910,13 +910,13 @@
       <c r="M5" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N5" s="16">
+      <c r="N5" s="5">
         <v>44733</v>
       </c>
-      <c r="O5" s="16">
+      <c r="O5" s="5">
         <v>44734</v>
       </c>
-      <c r="P5" s="16">
+      <c r="P5" s="5">
         <v>44735</v>
       </c>
       <c r="Q5" s="1"/>
@@ -953,7 +953,7 @@
       <c r="F6" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="G6" s="17" t="s">
+      <c r="G6" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H6" s="1" t="s">
@@ -963,7 +963,7 @@
         <v>36</v>
       </c>
       <c r="J6" s="1"/>
-      <c r="K6" s="16">
+      <c r="K6" s="5">
         <v>44734</v>
       </c>
       <c r="L6" s="1" t="s">
@@ -972,13 +972,13 @@
       <c r="M6" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="N6" s="16">
+      <c r="N6" s="5">
         <v>44733</v>
       </c>
-      <c r="O6" s="16">
+      <c r="O6" s="5">
         <v>44734</v>
       </c>
-      <c r="P6" s="16">
+      <c r="P6" s="5">
         <v>44735</v>
       </c>
       <c r="Q6" s="1"/>
@@ -1192,6 +1192,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="P3:P4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="L3:L4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
     <mergeCell ref="Z1:Z2"/>
     <mergeCell ref="W1:W2"/>
     <mergeCell ref="Y1:Y2"/>
@@ -1208,13 +1215,6 @@
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="J3:J4"/>
-    <mergeCell ref="P3:P4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="K3:K4"/>
-    <mergeCell ref="L3:L4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B5:B14">
